--- a/demo/Results_rt/transform/rt/Statistics.xlsx
+++ b/demo/Results_rt/transform/rt/Statistics.xlsx
@@ -13,27 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="17">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
   </si>
   <si>
     <t>emMean</t>
@@ -121,8 +115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="true"/>
-    <col min="2" max="2" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="2.28515625" customWidth="true"/>
+    <col min="2" max="2" width="2.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.85546875" customWidth="true"/>
     <col min="5" max="5" width="14" customWidth="true"/>
@@ -145,40 +139,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -186,16 +180,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>241.9840071803749</v>
+        <v>241.98400718043425</v>
       </c>
       <c r="D2" s="0">
-        <v>201.64801287892703</v>
+        <v>201.64801288011245</v>
       </c>
       <c r="E2" s="0">
-        <v>292.16175365661803</v>
+        <v>292.16175365493206</v>
       </c>
       <c r="F2" s="0">
         <v>90</v>
@@ -230,16 +224,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>294.6972091601175</v>
+        <v>294.69720916041484</v>
       </c>
       <c r="D3" s="0">
-        <v>249.2969843780684</v>
+        <v>249.29698437879935</v>
       </c>
       <c r="E3" s="0">
-        <v>350.0943175116858</v>
+        <v>350.09431751132502</v>
       </c>
       <c r="F3" s="0">
         <v>90</v>
@@ -274,16 +268,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>305.05153489416381</v>
+        <v>305.05153489482137</v>
       </c>
       <c r="D4" s="0">
-        <v>263.22716172589662</v>
+        <v>263.22716172632397</v>
       </c>
       <c r="E4" s="0">
-        <v>354.87148611469672</v>
+        <v>354.87148611566016</v>
       </c>
       <c r="F4" s="0">
         <v>87</v>
@@ -318,16 +312,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>328.72556258305866</v>
+        <v>328.72556258256316</v>
       </c>
       <c r="D5" s="0">
-        <v>279.29913499355382</v>
+        <v>279.29913498399816</v>
       </c>
       <c r="E5" s="0">
-        <v>388.68698493729403</v>
+        <v>388.6869849501507</v>
       </c>
       <c r="F5" s="0">
         <v>88</v>
@@ -362,16 +356,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>425.85322740107966</v>
+        <v>425.85322740128402</v>
       </c>
       <c r="D6" s="0">
-        <v>362.06449777392982</v>
+        <v>362.06449778039365</v>
       </c>
       <c r="E6" s="0">
-        <v>503.08478030065174</v>
+        <v>503.08478029167412</v>
       </c>
       <c r="F6" s="0">
         <v>85</v>
@@ -406,16 +400,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0">
-        <v>496.45444467360585</v>
+        <v>496.45444467395976</v>
       </c>
       <c r="D7" s="0">
-        <v>421.97268610235301</v>
+        <v>421.97268609829723</v>
       </c>
       <c r="E7" s="0">
-        <v>586.60248487420506</v>
+        <v>586.60248488100433</v>
       </c>
       <c r="F7" s="0">
         <v>89</v>

--- a/demo/Results_rt/transform/rt/Statistics.xlsx
+++ b/demo/Results_rt/transform/rt/Statistics.xlsx
@@ -183,13 +183,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>241.98400718043425</v>
+        <v>242.48983023918456</v>
       </c>
       <c r="D2" s="0">
-        <v>201.64801288011245</v>
+        <v>201.43216889294126</v>
       </c>
       <c r="E2" s="0">
-        <v>292.16175365493206</v>
+        <v>293.7617597245353</v>
       </c>
       <c r="F2" s="0">
         <v>90</v>
@@ -227,13 +227,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>294.69720916041484</v>
+        <v>294.88681562904264</v>
       </c>
       <c r="D3" s="0">
-        <v>249.29698437879935</v>
+        <v>246.86629098205836</v>
       </c>
       <c r="E3" s="0">
-        <v>350.09431751132502</v>
+        <v>354.225585119166</v>
       </c>
       <c r="F3" s="0">
         <v>90</v>
@@ -271,40 +271,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>305.05153489482137</v>
+        <v>281.46618710131924</v>
       </c>
       <c r="D4" s="0">
-        <v>263.22716172632397</v>
+        <v>240.22707503781177</v>
       </c>
       <c r="E4" s="0">
-        <v>354.87148611566016</v>
+        <v>331.26051594912161</v>
       </c>
       <c r="F4" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="0">
-        <v>305.00234239623677</v>
+        <v>281.62545755195231</v>
       </c>
       <c r="H4" s="0">
-        <v>235.40057540753872</v>
+        <v>249.20151924932676</v>
       </c>
       <c r="I4" s="0">
-        <v>24.660068909437939</v>
+        <v>25.492657587262556</v>
       </c>
       <c r="J4" s="0">
-        <v>328.84170154756396</v>
+        <v>298.21002153687783</v>
       </c>
       <c r="K4" s="0">
-        <v>188.71077833776491</v>
+        <v>172.972731633774</v>
       </c>
       <c r="L4" s="0">
-        <v>515.93976276430101</v>
+        <v>501.32010073781998</v>
       </c>
       <c r="M4" s="0">
-        <v>259.71627453900709</v>
+        <v>235.2661414204735</v>
       </c>
       <c r="N4" s="0">
-        <v>5.8837527683245128</v>
+        <v>5.8232862115540032</v>
       </c>
     </row>
     <row r="5">
@@ -315,40 +315,40 @@
         <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>328.72556258256316</v>
+        <v>311.35914964864651</v>
       </c>
       <c r="D5" s="0">
-        <v>279.29913498399816</v>
+        <v>262.55991930463489</v>
       </c>
       <c r="E5" s="0">
-        <v>388.6869849501507</v>
+        <v>371.11514253201273</v>
       </c>
       <c r="F5" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="0">
-        <v>330.62420651008665</v>
+        <v>313.00084438763133</v>
       </c>
       <c r="H5" s="0">
-        <v>266.69207175745987</v>
+        <v>277.35192189145215</v>
       </c>
       <c r="I5" s="0">
-        <v>27.722339612614462</v>
+        <v>28.36957217583722</v>
       </c>
       <c r="J5" s="0">
-        <v>344.75329076497366</v>
+        <v>339.73112679327892</v>
       </c>
       <c r="K5" s="0">
-        <v>202.11729325598549</v>
+        <v>196.59419738297501</v>
       </c>
       <c r="L5" s="0">
-        <v>558.37555478320746</v>
+        <v>556.15024332354881</v>
       </c>
       <c r="M5" s="0">
-        <v>279.87096509207822</v>
+        <v>261.41722776113909</v>
       </c>
       <c r="N5" s="0">
-        <v>5.9701094745360539</v>
+        <v>5.9288556405821646</v>
       </c>
     </row>
     <row r="6">
@@ -359,40 +359,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>425.85322740128402</v>
+        <v>370.2753152062495</v>
       </c>
       <c r="D6" s="0">
-        <v>362.06449778039365</v>
+        <v>308.01263296182378</v>
       </c>
       <c r="E6" s="0">
-        <v>503.08478029167412</v>
+        <v>447.71258598500236</v>
       </c>
       <c r="F6" s="0">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" s="0">
-        <v>426.5877220379748</v>
+        <v>372.68015284974774</v>
       </c>
       <c r="H6" s="0">
-        <v>316.31474136498269</v>
+        <v>347.37323743001178</v>
       </c>
       <c r="I6" s="0">
-        <v>33.580023574435756</v>
+        <v>35.42496277413386</v>
       </c>
       <c r="J6" s="0">
-        <v>459.39203029744186</v>
+        <v>433.87208090914334</v>
       </c>
       <c r="K6" s="0">
-        <v>275.35371956469021</v>
+        <v>256.33666210491504</v>
       </c>
       <c r="L6" s="0">
-        <v>703.36683858262711</v>
+        <v>680.55502750315281</v>
       </c>
       <c r="M6" s="0">
-        <v>364.77807586004707</v>
+        <v>308.54536639564083</v>
       </c>
       <c r="N6" s="0">
-        <v>6.2142921307649361</v>
+        <v>6.1116957894524182</v>
       </c>
     </row>
     <row r="7">
@@ -403,40 +403,40 @@
         <v>2</v>
       </c>
       <c r="C7" s="0">
-        <v>496.45444467395976</v>
+        <v>451.43783176235161</v>
       </c>
       <c r="D7" s="0">
-        <v>421.97268609829723</v>
+        <v>380.15020668433942</v>
       </c>
       <c r="E7" s="0">
-        <v>586.60248488100433</v>
+        <v>538.72167771060003</v>
       </c>
       <c r="F7" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="0">
-        <v>501.89990575623779</v>
+        <v>489.84795559987674</v>
       </c>
       <c r="H7" s="0">
-        <v>348.52924602783014</v>
+        <v>358.02616528808846</v>
       </c>
       <c r="I7" s="0">
-        <v>36.249831342883454</v>
+        <v>36.957831859392854</v>
       </c>
       <c r="J7" s="0">
-        <v>544.14049616321699</v>
+        <v>538.89668446521807</v>
       </c>
       <c r="K7" s="0">
-        <v>319.93658757482444</v>
+        <v>287.79837666053191</v>
       </c>
       <c r="L7" s="0">
-        <v>823.91024087012022</v>
+        <v>823.75523332093894</v>
       </c>
       <c r="M7" s="0">
-        <v>434.79637749611902</v>
+        <v>421.65762743009606</v>
       </c>
       <c r="N7" s="0">
-        <v>6.3636072013867544</v>
+        <v>6.3457063743255082</v>
       </c>
     </row>
   </sheetData>
